--- a/xlsx/共识主动性_intext.xlsx
+++ b/xlsx/共识主动性_intext.xlsx
@@ -29,7 +29,7 @@
     <t>社会网络</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_共识主动性</t>
+    <t>政策_政策_维基百科_共识主动性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%BB%84%E7%BB%87</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%A0%B8%E8%A0%95%E8%9F%B2</t>
   </si>
   <si>
-    <t>反核蠕蟲</t>
+    <t>反核蠕虫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%BA%90%E8%BD%AF%E4%BB%B6</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%88%A9%E5%AE%89%C2%B7%E4%BF%9D%E7%BE%85%C2%B7%E9%98%BF%E6%A1%91%E5%A5%87</t>
   </si>
   <si>
-    <t>朱利安·保羅·阿桑奇</t>
+    <t>朱利安·保罗·阿桑奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E8%A7%A3%E5%AF%86%E6%B3%84%E9%9C%B2%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E7%94%B5%E6%8A%A5%E4%BA%8B%E4%BB%B6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%AB%BE%E7%99%BB</t>
   </si>
   <si>
-    <t>斯諾登</t>
+    <t>斯诺登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%B1%E9%95%9C%E8%AE%A1%E5%88%92</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A8%E5%82%98%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>雨傘革命</t>
+    <t>雨伞革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E4%BC%9A%E8%AE%AE%E5%91%98</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E5%88%B6</t>
   </si>
   <si>
-    <t>代議制</t>
+    <t>代议制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
